--- a/data/trans_orig/P21D_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F3AE32-222D-4164-A0DF-EB4BECC54E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{705DB51B-B022-4B0A-87DF-1639909A65AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3CBD329-9378-4EBB-9437-7490F0BF13FC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC42CE45-3269-4DE0-B669-5D8E44255DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>Población que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,41%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>5,42%</t>
+    <t>5,84%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,59%</t>
+    <t>98,54%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>98,33%</t>
   </si>
   <si>
-    <t>94,58%</t>
+    <t>94,16%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,274 +131,250 @@
     <t>3,15%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>5,81%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>97,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634E1AE5-0568-4639-A947-A40F12BF5B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6BEEEF-42E8-4A2E-B35D-14CCDBB9F9C3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1095,10 +1071,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -1107,13 +1083,13 @@
         <v>7738</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -1122,13 +1098,13 @@
         <v>14626</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,13 +1119,13 @@
         <v>211621</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>414</v>
@@ -1158,13 +1134,13 @@
         <v>263499</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>638</v>
@@ -1173,13 +1149,13 @@
         <v>475120</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1235,7 +1211,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1247,13 +1223,13 @@
         <v>5051</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -1262,13 +1238,13 @@
         <v>6829</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -1277,13 +1253,13 @@
         <v>11880</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,13 +1274,13 @@
         <v>481629</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>692</v>
@@ -1313,13 +1289,13 @@
         <v>490473</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1113</v>
@@ -1328,13 +1304,13 @@
         <v>972102</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,7 +1366,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1402,13 +1378,13 @@
         <v>10009</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -1417,13 +1393,13 @@
         <v>5171</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -1432,13 +1408,13 @@
         <v>15181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,13 +1429,13 @@
         <v>326118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>476</v>
@@ -1468,13 +1444,13 @@
         <v>349849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>776</v>
@@ -1483,13 +1459,13 @@
         <v>675966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,7 +1521,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1557,13 +1533,13 @@
         <v>3284</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -1572,13 +1548,13 @@
         <v>19821</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -1587,13 +1563,13 @@
         <v>23105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1584,13 @@
         <v>420537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>648</v>
@@ -1623,13 +1599,13 @@
         <v>490812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>1070</v>
@@ -1638,13 +1614,13 @@
         <v>911349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,10 +1691,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -1727,13 +1703,13 @@
         <v>40368</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -1742,13 +1718,13 @@
         <v>65759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,10 +1742,10 @@
         <v>23</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>2318</v>
@@ -1778,13 +1754,13 @@
         <v>1642345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>3744</v>
@@ -1793,13 +1769,13 @@
         <v>3135485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,7 +1831,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{705DB51B-B022-4B0A-87DF-1639909A65AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB544A0F-AA27-4F80-BAF9-A5C4E636A19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC42CE45-3269-4DE0-B669-5D8E44255DCE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C998FA20-505B-4314-B4F2-74F341146D73}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -125,7 +125,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,15%</t>
@@ -176,7 +176,7 @@
     <t>98,12%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -233,7 +233,7 @@
     <t>99,32%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,98%</t>
@@ -789,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6BEEEF-42E8-4A2E-B35D-14CCDBB9F9C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF12B2-2FF8-4CAB-B7EB-6C5135EE25F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB544A0F-AA27-4F80-BAF9-A5C4E636A19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47FEE3A7-35DB-46C0-B896-D463DF97294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C998FA20-505B-4314-B4F2-74F341146D73}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{974F420A-80BC-4B36-ACFE-77E56E84FADF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Población que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -77,304 +77,328 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>98,89%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>97,05%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF12B2-2FF8-4CAB-B7EB-6C5135EE25F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABF1A1B-FA6A-404A-A15F-408277502CF5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1071,10 +1095,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -1083,13 +1107,13 @@
         <v>7738</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -1098,13 +1122,13 @@
         <v>14626</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1119,13 +1143,13 @@
         <v>211621</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>414</v>
@@ -1134,13 +1158,13 @@
         <v>263499</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>638</v>
@@ -1149,13 +1173,13 @@
         <v>475120</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1211,7 +1235,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1223,13 +1247,13 @@
         <v>5051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -1238,13 +1262,13 @@
         <v>6829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -1253,13 +1277,13 @@
         <v>11880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,13 +1298,13 @@
         <v>481629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>692</v>
@@ -1289,13 +1313,13 @@
         <v>490473</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1113</v>
@@ -1304,13 +1328,13 @@
         <v>972102</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1366,7 +1390,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1378,13 +1402,13 @@
         <v>10009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -1393,13 +1417,13 @@
         <v>5171</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -1408,13 +1432,13 @@
         <v>15181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,13 +1453,13 @@
         <v>326118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>476</v>
@@ -1444,13 +1468,13 @@
         <v>349849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>776</v>
@@ -1459,13 +1483,13 @@
         <v>675966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,7 +1545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1533,13 +1557,13 @@
         <v>3284</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -1548,13 +1572,13 @@
         <v>19821</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -1563,13 +1587,13 @@
         <v>23105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,13 +1608,13 @@
         <v>420537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>648</v>
@@ -1599,13 +1623,13 @@
         <v>490812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1070</v>
@@ -1614,13 +1638,13 @@
         <v>911349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,10 +1715,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -1703,13 +1727,13 @@
         <v>40368</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -1718,13 +1742,13 @@
         <v>65759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1742,10 +1766,10 @@
         <v>23</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>2318</v>
@@ -1754,13 +1778,13 @@
         <v>1642345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>3744</v>
@@ -1769,13 +1793,13 @@
         <v>3135485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47FEE3A7-35DB-46C0-B896-D463DF97294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0921A08-1214-4A6A-B401-4A766C0F5EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{974F420A-80BC-4B36-ACFE-77E56E84FADF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{74EC03E9-7DA0-4790-93C4-854D3EFBE390}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>Población que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -65,340 +65,277 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,8 +750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABF1A1B-FA6A-404A-A15F-408277502CF5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED377755-9D75-497F-B4C8-F34152168675}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -931,10 +868,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>160</v>
+        <v>6844</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,85 +883,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>808</v>
+        <v>8441</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>968</v>
+        <v>15286</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="D5" s="7">
-        <v>53234</v>
+        <v>259755</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>88</v>
+        <v>502</v>
       </c>
       <c r="I5" s="7">
-        <v>47714</v>
+        <v>290688</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>147</v>
+        <v>785</v>
       </c>
       <c r="N5" s="7">
-        <v>100947</v>
+        <v>550441</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1033,132 +970,132 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D6" s="7">
-        <v>53394</v>
+        <v>266599</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>90</v>
+        <v>515</v>
       </c>
       <c r="I6" s="7">
-        <v>48522</v>
+        <v>299129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>150</v>
+        <v>809</v>
       </c>
       <c r="N6" s="7">
-        <v>101915</v>
+        <v>565727</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>6888</v>
+        <v>5391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>7738</v>
+        <v>6375</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>14626</v>
+        <v>11766</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>224</v>
+        <v>421</v>
       </c>
       <c r="D8" s="7">
-        <v>211621</v>
+        <v>652998</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>414</v>
+        <v>692</v>
       </c>
       <c r="I8" s="7">
-        <v>263499</v>
+        <v>440980</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>43</v>
@@ -1167,10 +1104,10 @@
         <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>638</v>
+        <v>1113</v>
       </c>
       <c r="N8" s="7">
-        <v>475120</v>
+        <v>1093978</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1188,49 +1125,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="D9" s="7">
-        <v>218509</v>
+        <v>658389</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>425</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>271237</v>
+        <v>447355</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>659</v>
+        <v>1131</v>
       </c>
       <c r="N9" s="7">
-        <v>489746</v>
+        <v>1105744</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,10 +1178,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>5051</v>
+        <v>10181</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1259,7 +1196,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>6829</v>
+        <v>4929</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1271,10 +1208,10 @@
         <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>11880</v>
+        <v>15110</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1289,13 +1226,13 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>421</v>
+        <v>300</v>
       </c>
       <c r="D11" s="7">
-        <v>481629</v>
+        <v>320657</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -1307,10 +1244,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>692</v>
+        <v>476</v>
       </c>
       <c r="I11" s="7">
-        <v>490473</v>
+        <v>324461</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1322,10 +1259,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1113</v>
+        <v>776</v>
       </c>
       <c r="N11" s="7">
-        <v>972102</v>
+        <v>645117</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1343,49 +1280,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="D12" s="7">
-        <v>486680</v>
+        <v>330838</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>705</v>
+        <v>489</v>
       </c>
       <c r="I12" s="7">
-        <v>497302</v>
+        <v>329390</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1131</v>
+        <v>803</v>
       </c>
       <c r="N12" s="7">
-        <v>983982</v>
+        <v>660227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,10 +1333,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>10009</v>
+        <v>3071</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -1411,10 +1348,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>5171</v>
+        <v>16688</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -1426,10 +1363,10 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>15181</v>
+        <v>19759</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -1444,13 +1381,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="D14" s="7">
-        <v>326118</v>
+        <v>404882</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1462,10 +1399,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>476</v>
+        <v>648</v>
       </c>
       <c r="I14" s="7">
-        <v>349849</v>
+        <v>499595</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1477,10 +1414,10 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>776</v>
+        <v>1070</v>
       </c>
       <c r="N14" s="7">
-        <v>675966</v>
+        <v>904476</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1498,153 +1435,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>314</v>
+        <v>426</v>
       </c>
       <c r="D15" s="7">
-        <v>336127</v>
+        <v>407953</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>489</v>
+        <v>665</v>
       </c>
       <c r="I15" s="7">
-        <v>355020</v>
+        <v>516283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>803</v>
+        <v>1091</v>
       </c>
       <c r="N15" s="7">
-        <v>691147</v>
+        <v>924235</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>3284</v>
+        <v>25487</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>56</v>
+      </c>
+      <c r="I16" s="7">
+        <v>36433</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>17</v>
-      </c>
-      <c r="I16" s="7">
-        <v>19821</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>90</v>
+      </c>
+      <c r="N16" s="7">
+        <v>61921</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="7">
-        <v>21</v>
-      </c>
-      <c r="N16" s="7">
-        <v>23105</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>422</v>
+        <v>1426</v>
       </c>
       <c r="D17" s="7">
-        <v>420537</v>
+        <v>1638291</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2318</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1555723</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3744</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3194013</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>648</v>
-      </c>
-      <c r="I17" s="7">
-        <v>490812</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1070</v>
-      </c>
-      <c r="N17" s="7">
-        <v>911349</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,217 +1590,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>426</v>
+        <v>1460</v>
       </c>
       <c r="D18" s="7">
-        <v>423821</v>
+        <v>1663778</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>665</v>
+        <v>2374</v>
       </c>
       <c r="I18" s="7">
-        <v>510633</v>
+        <v>1592156</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1091</v>
+        <v>3834</v>
       </c>
       <c r="N18" s="7">
-        <v>934454</v>
+        <v>3255934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7">
-        <v>25391</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="7">
-        <v>56</v>
-      </c>
-      <c r="I19" s="7">
-        <v>40368</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>90</v>
-      </c>
-      <c r="N19" s="7">
-        <v>65759</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1426</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1493140</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2318</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1642345</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3744</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3135485</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1460</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2374</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1682713</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3834</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3201244</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
